--- a/csv/model/sector_waste/formula_sector_waste_BC.xlsx
+++ b/csv/model/sector_waste/formula_sector_waste_BC.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\model\sector_waste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B27767F-BA95-48E9-A6FB-3AADA4B0B976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C264C5A1-ECFB-4D12-9B06-71E262DAE2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B8569BA5-40DA-4262-9BA1-7505AF4FF722}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{27DA8B14-8AD6-4B81-8442-7E55324C607F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -358,6 +359,82 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
+      <sheetName val="BC"/>
+      <sheetName val="AB"/>
+      <sheetName val="SK"/>
+      <sheetName val="MB"/>
+      <sheetName val="ON"/>
+      <sheetName val="QC"/>
+      <sheetName val="NB"/>
+      <sheetName val="NS"/>
+      <sheetName val="PE"/>
+      <sheetName val="NL"/>
+      <sheetName val="YT"/>
+      <sheetName val="NT"/>
+      <sheetName val="NU"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="98">
+          <cell r="E98">
+            <v>2730000</v>
+          </cell>
+          <cell r="F98">
+            <v>2760162.4230102994</v>
+          </cell>
+          <cell r="G98">
+            <v>2790658.095750215</v>
+          </cell>
+          <cell r="H98">
+            <v>2387415.2078036466</v>
+          </cell>
+          <cell r="I98">
+            <v>1755485.5130743794</v>
+          </cell>
+          <cell r="J98">
+            <v>1358361.2260743617</v>
+          </cell>
+          <cell r="K98">
+            <v>1051074.022975469</v>
+          </cell>
+          <cell r="L98">
+            <v>813301.04287985491</v>
+          </cell>
+          <cell r="M98">
+            <v>629316.84342930187</v>
+          </cell>
+          <cell r="N98">
+            <v>486953.37709326588</v>
+          </cell>
+          <cell r="O98">
+            <v>376795.2406460183</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
       <sheetName val="Control"/>
       <sheetName val="Macro"/>
       <sheetName val="Prices"/>
@@ -29656,7 +29733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71CFD50-77F2-41ED-98CE-40E021EFB4B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85C9F30-E57D-4C56-9248-F9DFFE32F0DD}">
   <dimension ref="A1:X136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -29767,47 +29844,47 @@
         <v>19</v>
       </c>
       <c r="M3">
-        <f>21000000*(1.0022)^(M$2-$M$2)*0.13</f>
+        <f>[1]BC!E$98</f>
         <v>2730000</v>
       </c>
       <c r="N3">
-        <f>21000000*(1.0022)^(N$2-$M$2)*0.13</f>
+        <f>[1]BC!F$98</f>
         <v>2760162.4230102994</v>
       </c>
       <c r="O3">
-        <f>21000000*(1.0022)^(O$2-$M$2)*0.13</f>
+        <f>[1]BC!G$98</f>
         <v>2790658.095750215</v>
       </c>
       <c r="P3">
-        <f>21000000*(1.0022)^(P$2-$M$2)*0.11</f>
+        <f>[1]BC!H$98</f>
         <v>2387415.2078036466</v>
       </c>
       <c r="Q3">
-        <f>21000000*(1.0022)^(Q$2-$M$2)*0.08</f>
+        <f>[1]BC!I$98</f>
         <v>1755485.5130743794</v>
       </c>
       <c r="R3">
-        <f>Q3*(1-0.05)^5</f>
+        <f>[1]BC!J$98</f>
         <v>1358361.2260743617</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:W3" si="0">R3*(1-0.05)^5</f>
+        <f>[1]BC!K$98</f>
         <v>1051074.022975469</v>
       </c>
       <c r="T3">
-        <f t="shared" si="0"/>
+        <f>[1]BC!L$98</f>
         <v>813301.04287985491</v>
       </c>
       <c r="U3">
-        <f t="shared" si="0"/>
+        <f>[1]BC!M$98</f>
         <v>629316.84342930187</v>
       </c>
       <c r="V3">
-        <f t="shared" si="0"/>
+        <f>[1]BC!N$98</f>
         <v>486953.37709326588</v>
       </c>
       <c r="W3">
-        <f t="shared" si="0"/>
+        <f>[1]BC!O$98</f>
         <v>376795.2406460183</v>
       </c>
     </row>
@@ -29868,47 +29945,47 @@
         <v>24</v>
       </c>
       <c r="M6">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[1]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[2]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="N6">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[1]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[2]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="O6">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[1]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[2]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="P6">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[1]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[2]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="Q6">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[1]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[2]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="R6">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[1]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[2]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="S6">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[1]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[2]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="T6">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[1]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[2]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="U6">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[1]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[2]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="V6">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[1]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[2]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="W6">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[1]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[2]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
     </row>
@@ -29935,47 +30012,47 @@
         <v>24</v>
       </c>
       <c r="M7">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[1]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[2]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="N7">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[1]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[2]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="O7">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[1]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[2]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="P7">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[1]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[2]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="Q7">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[1]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[2]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="R7">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[1]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[2]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="S7">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[1]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[2]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="T7">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[1]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[2]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="U7">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[1]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[2]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="V7">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[1]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[2]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="W7">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[1]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[2]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
     </row>
@@ -30002,47 +30079,47 @@
         <v>24</v>
       </c>
       <c r="M8">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[1]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[2]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="N8">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[1]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[2]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="O8">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[1]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[2]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="P8">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[1]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[2]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="Q8">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[1]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[2]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="R8">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[1]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[2]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="S8">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[1]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[2]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="T8">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[1]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[2]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="U8">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[1]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[2]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="V8">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[1]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[2]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="W8">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[1]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[2]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
     </row>
@@ -30069,47 +30146,47 @@
         <v>24</v>
       </c>
       <c r="M9">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[1]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[2]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="N9">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[1]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[2]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="O9">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[1]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[2]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="P9">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[1]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[2]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="Q9">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[1]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[2]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="R9">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[1]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[2]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="S9">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[1]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[2]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="T9">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[1]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[2]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="U9">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[1]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[2]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="V9">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[1]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[2]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="W9">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[1]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[2]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
     </row>
@@ -30136,47 +30213,47 @@
         <v>24</v>
       </c>
       <c r="M10">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[1]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[2]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="N10">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[1]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[2]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="O10">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[1]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[2]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="P10">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[1]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[2]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="Q10">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[1]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[2]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="R10">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[1]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[2]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="S10">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[1]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[2]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="T10">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[1]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[2]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="U10">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[1]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[2]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="V10">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[1]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[2]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="W10">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[1]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[2]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
     </row>
@@ -30203,47 +30280,47 @@
         <v>24</v>
       </c>
       <c r="M11">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[1]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[2]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="N11">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[1]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[2]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="O11">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[1]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[2]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="P11">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[1]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[2]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="Q11">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[1]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[2]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="R11">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[1]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[2]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="S11">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[1]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[2]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="T11">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[1]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[2]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="U11">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[1]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[2]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="V11">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[1]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[2]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="W11">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[1]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[2]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
     </row>
@@ -30329,47 +30406,47 @@
         <v>24</v>
       </c>
       <c r="M13">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[1]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[2]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="N13">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[1]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[2]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="O13">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[1]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[2]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="P13">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[1]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[2]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="Q13">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[1]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[2]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="R13">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[1]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[2]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="S13">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[1]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[2]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="T13">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[1]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[2]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="U13">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[1]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[2]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="V13">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[1]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[2]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="W13">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[1]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[2]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
     </row>
@@ -30396,47 +30473,47 @@
         <v>31</v>
       </c>
       <c r="M14">
-        <f>INDEX([1]!CER_prices,MATCH($C14&amp;INDEX([1]!sector_CER,MATCH($D14,[1]!sector_CIMS,0))&amp;$J14,[1]!CER_prices_index,0),MATCH(M$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!K$29:K$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C14&amp;INDEX([2]!sector_CER,MATCH($D14,[2]!sector_CIMS,0))&amp;$J14,[2]!CER_prices_index,0),MATCH(M$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!K$29:K$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>1.0160053775773112</v>
       </c>
       <c r="N14">
-        <f>INDEX([1]!CER_prices,MATCH($C14&amp;INDEX([1]!sector_CER,MATCH($D14,[1]!sector_CIMS,0))&amp;$J14,[1]!CER_prices_index,0),MATCH(N$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!L$29:L$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C14&amp;INDEX([2]!sector_CER,MATCH($D14,[2]!sector_CIMS,0))&amp;$J14,[2]!CER_prices_index,0),MATCH(N$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!L$29:L$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>1.0160053775773112</v>
       </c>
       <c r="O14">
-        <f>INDEX([1]!CER_prices,MATCH($C14&amp;INDEX([1]!sector_CER,MATCH($D14,[1]!sector_CIMS,0))&amp;$J14,[1]!CER_prices_index,0),MATCH(O$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!M$29:M$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C14&amp;INDEX([2]!sector_CER,MATCH($D14,[2]!sector_CIMS,0))&amp;$J14,[2]!CER_prices_index,0),MATCH(O$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!M$29:M$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>1.1293796930390316</v>
       </c>
       <c r="P14">
-        <f>INDEX([1]!CER_prices,MATCH($C14&amp;INDEX([1]!sector_CER,MATCH($D14,[1]!sector_CIMS,0))&amp;$J14,[1]!CER_prices_index,0),MATCH(P$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!N$29:N$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C14&amp;INDEX([2]!sector_CER,MATCH($D14,[2]!sector_CIMS,0))&amp;$J14,[2]!CER_prices_index,0),MATCH(P$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!N$29:N$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>1.1700038420686989</v>
       </c>
       <c r="Q14">
-        <f>INDEX([1]!CER_prices,MATCH($C14&amp;INDEX([1]!sector_CER,MATCH($D14,[1]!sector_CIMS,0))&amp;$J14,[1]!CER_prices_index,0),MATCH(Q$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!O$29:O$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C14&amp;INDEX([2]!sector_CER,MATCH($D14,[2]!sector_CIMS,0))&amp;$J14,[2]!CER_prices_index,0),MATCH(Q$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!O$29:O$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>1.0600747731463751</v>
       </c>
       <c r="R14">
-        <f>INDEX([1]!CER_prices,MATCH($C14&amp;INDEX([1]!sector_CER,MATCH($D14,[1]!sector_CIMS,0))&amp;$J14,[1]!CER_prices_index,0),MATCH(R$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!P$29:P$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C14&amp;INDEX([2]!sector_CER,MATCH($D14,[2]!sector_CIMS,0))&amp;$J14,[2]!CER_prices_index,0),MATCH(R$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!P$29:P$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>1.1685702999588341</v>
       </c>
       <c r="S14">
-        <f>INDEX([1]!CER_prices,MATCH($C14&amp;INDEX([1]!sector_CER,MATCH($D14,[1]!sector_CIMS,0))&amp;$J14,[1]!CER_prices_index,0),MATCH(S$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!Q$29:Q$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C14&amp;INDEX([2]!sector_CER,MATCH($D14,[2]!sector_CIMS,0))&amp;$J14,[2]!CER_prices_index,0),MATCH(S$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!Q$29:Q$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>1.2331289910382899</v>
       </c>
       <c r="T14">
-        <f>INDEX([1]!CER_prices,MATCH($C14&amp;INDEX([1]!sector_CER,MATCH($D14,[1]!sector_CIMS,0))&amp;$J14,[1]!CER_prices_index,0),MATCH(T$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!R$29:R$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C14&amp;INDEX([2]!sector_CER,MATCH($D14,[2]!sector_CIMS,0))&amp;$J14,[2]!CER_prices_index,0),MATCH(T$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!R$29:R$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>1.1813801723069417</v>
       </c>
       <c r="U14">
-        <f>INDEX([1]!CER_prices,MATCH($C14&amp;INDEX([1]!sector_CER,MATCH($D14,[1]!sector_CIMS,0))&amp;$J14,[1]!CER_prices_index,0),MATCH(U$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!S$29:S$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C14&amp;INDEX([2]!sector_CER,MATCH($D14,[2]!sector_CIMS,0))&amp;$J14,[2]!CER_prices_index,0),MATCH(U$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!S$29:S$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>1.1078112969818017</v>
       </c>
       <c r="V14">
-        <f>INDEX([1]!CER_prices,MATCH($C14&amp;INDEX([1]!sector_CER,MATCH($D14,[1]!sector_CIMS,0))&amp;$J14,[1]!CER_prices_index,0),MATCH(V$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!T$29:T$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C14&amp;INDEX([2]!sector_CER,MATCH($D14,[2]!sector_CIMS,0))&amp;$J14,[2]!CER_prices_index,0),MATCH(V$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!T$29:T$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>1.0222262033989544</v>
       </c>
       <c r="W14">
-        <f>INDEX([1]!CER_prices,MATCH($C14&amp;INDEX([1]!sector_CER,MATCH($D14,[1]!sector_CIMS,0))&amp;$J14,[1]!CER_prices_index,0),MATCH(W$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!U$29:U$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C14&amp;INDEX([2]!sector_CER,MATCH($D14,[2]!sector_CIMS,0))&amp;$J14,[2]!CER_prices_index,0),MATCH(W$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!U$29:U$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>0.96565680121894615</v>
       </c>
     </row>
@@ -30463,47 +30540,47 @@
         <v>24</v>
       </c>
       <c r="M15">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[1]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[2]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="N15">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[1]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[2]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="O15">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[1]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[2]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="P15">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[1]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[2]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="Q15">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[1]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[2]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="R15">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[1]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[2]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="S15">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[1]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[2]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="T15">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[1]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[2]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="U15">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[1]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[2]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="V15">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[1]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[2]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="W15">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[1]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[2]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
     </row>
@@ -30530,47 +30607,47 @@
         <v>24</v>
       </c>
       <c r="M16">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[1]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[2]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="N16">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[1]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[2]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="O16">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[1]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[2]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="P16">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[1]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[2]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="Q16">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[1]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[2]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="R16">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[1]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[2]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="S16">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[1]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[2]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="T16">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[1]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[2]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="U16">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[1]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[2]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="V16">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[1]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[2]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="W16">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[1]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[2]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
     </row>
@@ -30597,47 +30674,47 @@
         <v>24</v>
       </c>
       <c r="M17">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[1]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[2]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="N17">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[1]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[2]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="O17">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[1]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[2]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="P17">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[1]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[2]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="Q17">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[1]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[2]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="R17">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[1]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[2]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="S17">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[1]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[2]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="T17">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[1]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[2]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="U17">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[1]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[2]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="V17">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[1]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[2]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="W17">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[1]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[2]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
     </row>
@@ -30664,47 +30741,47 @@
         <v>24</v>
       </c>
       <c r="M18">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[1]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[2]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="N18">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[1]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[2]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="O18">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[1]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[2]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="P18">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[1]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[2]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="Q18">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[1]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[2]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="R18">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[1]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[2]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="S18">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[1]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[2]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="T18">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[1]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[2]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="U18">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[1]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[2]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="V18">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[1]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[2]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="W18">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[1]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[2]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
     </row>
@@ -30731,47 +30808,47 @@
         <v>31</v>
       </c>
       <c r="M19">
-        <f>INDEX([1]!CER_prices,MATCH($C19&amp;INDEX([1]!sector_CER,MATCH($D19,[1]!sector_CIMS,0))&amp;$J19,[1]!CER_prices_index,0),MATCH(M$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!K$29:K$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C19&amp;INDEX([2]!sector_CER,MATCH($D19,[2]!sector_CIMS,0))&amp;$J19,[2]!CER_prices_index,0),MATCH(M$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!K$29:K$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>1.0557392141561774</v>
       </c>
       <c r="N19">
-        <f>INDEX([1]!CER_prices,MATCH($C19&amp;INDEX([1]!sector_CER,MATCH($D19,[1]!sector_CIMS,0))&amp;$J19,[1]!CER_prices_index,0),MATCH(N$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!L$29:L$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C19&amp;INDEX([2]!sector_CER,MATCH($D19,[2]!sector_CIMS,0))&amp;$J19,[2]!CER_prices_index,0),MATCH(N$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!L$29:L$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>1.0557392141561774</v>
       </c>
       <c r="O19">
-        <f>INDEX([1]!CER_prices,MATCH($C19&amp;INDEX([1]!sector_CER,MATCH($D19,[1]!sector_CIMS,0))&amp;$J19,[1]!CER_prices_index,0),MATCH(O$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!M$29:M$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C19&amp;INDEX([2]!sector_CER,MATCH($D19,[2]!sector_CIMS,0))&amp;$J19,[2]!CER_prices_index,0),MATCH(O$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!M$29:M$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>1.1071560569909378</v>
       </c>
       <c r="P19">
-        <f>INDEX([1]!CER_prices,MATCH($C19&amp;INDEX([1]!sector_CER,MATCH($D19,[1]!sector_CIMS,0))&amp;$J19,[1]!CER_prices_index,0),MATCH(P$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!N$29:N$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C19&amp;INDEX([2]!sector_CER,MATCH($D19,[2]!sector_CIMS,0))&amp;$J19,[2]!CER_prices_index,0),MATCH(P$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!N$29:N$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>1.3264534365956315</v>
       </c>
       <c r="Q19">
-        <f>INDEX([1]!CER_prices,MATCH($C19&amp;INDEX([1]!sector_CER,MATCH($D19,[1]!sector_CIMS,0))&amp;$J19,[1]!CER_prices_index,0),MATCH(Q$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!O$29:O$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C19&amp;INDEX([2]!sector_CER,MATCH($D19,[2]!sector_CIMS,0))&amp;$J19,[2]!CER_prices_index,0),MATCH(Q$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!O$29:O$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>0.80925887171052624</v>
       </c>
       <c r="R19">
-        <f>INDEX([1]!CER_prices,MATCH($C19&amp;INDEX([1]!sector_CER,MATCH($D19,[1]!sector_CIMS,0))&amp;$J19,[1]!CER_prices_index,0),MATCH(R$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!P$29:P$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C19&amp;INDEX([2]!sector_CER,MATCH($D19,[2]!sector_CIMS,0))&amp;$J19,[2]!CER_prices_index,0),MATCH(R$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!P$29:P$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>0.90270842821186092</v>
       </c>
       <c r="S19">
-        <f>INDEX([1]!CER_prices,MATCH($C19&amp;INDEX([1]!sector_CER,MATCH($D19,[1]!sector_CIMS,0))&amp;$J19,[1]!CER_prices_index,0),MATCH(S$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!Q$29:Q$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C19&amp;INDEX([2]!sector_CER,MATCH($D19,[2]!sector_CIMS,0))&amp;$J19,[2]!CER_prices_index,0),MATCH(S$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!Q$29:Q$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>0.85690314279767632</v>
       </c>
       <c r="T19">
-        <f>INDEX([1]!CER_prices,MATCH($C19&amp;INDEX([1]!sector_CER,MATCH($D19,[1]!sector_CIMS,0))&amp;$J19,[1]!CER_prices_index,0),MATCH(T$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!R$29:R$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C19&amp;INDEX([2]!sector_CER,MATCH($D19,[2]!sector_CIMS,0))&amp;$J19,[2]!CER_prices_index,0),MATCH(T$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!R$29:R$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>0.83912140951455305</v>
       </c>
       <c r="U19">
-        <f>INDEX([1]!CER_prices,MATCH($C19&amp;INDEX([1]!sector_CER,MATCH($D19,[1]!sector_CIMS,0))&amp;$J19,[1]!CER_prices_index,0),MATCH(U$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!S$29:S$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C19&amp;INDEX([2]!sector_CER,MATCH($D19,[2]!sector_CIMS,0))&amp;$J19,[2]!CER_prices_index,0),MATCH(U$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!S$29:S$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>0.84041216516461226</v>
       </c>
       <c r="V19">
-        <f>INDEX([1]!CER_prices,MATCH($C19&amp;INDEX([1]!sector_CER,MATCH($D19,[1]!sector_CIMS,0))&amp;$J19,[1]!CER_prices_index,0),MATCH(V$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!T$29:T$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C19&amp;INDEX([2]!sector_CER,MATCH($D19,[2]!sector_CIMS,0))&amp;$J19,[2]!CER_prices_index,0),MATCH(V$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!T$29:T$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>0.84280732149355919</v>
       </c>
       <c r="W19">
-        <f>INDEX([1]!CER_prices,MATCH($C19&amp;INDEX([1]!sector_CER,MATCH($D19,[1]!sector_CIMS,0))&amp;$J19,[1]!CER_prices_index,0),MATCH(W$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!U$29:U$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C19&amp;INDEX([2]!sector_CER,MATCH($D19,[2]!sector_CIMS,0))&amp;$J19,[2]!CER_prices_index,0),MATCH(W$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!U$29:U$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>0.84547528189865873</v>
       </c>
     </row>
@@ -30798,47 +30875,47 @@
         <v>24</v>
       </c>
       <c r="M20">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[1]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[2]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="N20">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[1]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[2]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="O20">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[1]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[2]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="P20">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[1]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[2]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="Q20">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[1]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[2]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="R20">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[1]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[2]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="S20">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[1]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[2]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="T20">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[1]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[2]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="U20">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[1]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[2]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="V20">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[1]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[2]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="W20">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[1]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[2]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
     </row>
@@ -30865,47 +30942,47 @@
         <v>24</v>
       </c>
       <c r="M21">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[1]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[2]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="N21">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[1]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[2]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="O21">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[1]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[2]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="P21">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[1]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[2]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="Q21">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[1]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[2]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="R21">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[1]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[2]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="S21">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[1]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[2]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="T21">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[1]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[2]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="U21">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[1]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[2]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="V21">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[1]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[2]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="W21">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[1]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[2]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
     </row>
@@ -30932,47 +31009,47 @@
         <v>24</v>
       </c>
       <c r="M22">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[1]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[2]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="N22">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[1]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[2]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="O22">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[1]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[2]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="P22">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[1]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[2]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="Q22">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[1]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[2]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="R22">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[1]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[2]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="S22">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[1]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[2]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="T22">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[1]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[2]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="U22">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[1]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[2]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="V22">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[1]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[2]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="W22">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[1]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[2]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
     </row>
@@ -30999,47 +31076,47 @@
         <v>24</v>
       </c>
       <c r="M23">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[1]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[2]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="N23">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[1]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[2]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="O23">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[1]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[2]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="P23">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[1]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[2]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="Q23">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[1]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[2]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="R23">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[1]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[2]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="S23">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[1]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[2]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="T23">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[1]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[2]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="U23">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[1]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[2]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="V23">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[1]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[2]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="W23">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[1]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[2]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
     </row>
@@ -31066,47 +31143,47 @@
         <v>24</v>
       </c>
       <c r="M24">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[1]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[2]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="N24">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[1]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[2]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="O24">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[1]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[2]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="P24">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[1]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[2]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="Q24">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[1]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[2]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="R24">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[1]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[2]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="S24">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[1]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[2]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="T24">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[1]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[2]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="U24">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[1]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[2]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="V24">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[1]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[2]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="W24">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[1]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[2]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
     </row>
@@ -31133,47 +31210,47 @@
         <v>24</v>
       </c>
       <c r="M25">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[1]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[2]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="N25">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[1]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[2]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="O25">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[1]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[2]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="P25">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[1]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[2]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="Q25">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[1]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[2]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="R25">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[1]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[2]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="S25">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[1]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[2]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="T25">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[1]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[2]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="U25">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[1]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[2]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="V25">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[1]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[2]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="W25">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[1]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[2]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
     </row>
@@ -31528,43 +31605,43 @@
         <v>0.35</v>
       </c>
       <c r="N34">
-        <f t="shared" ref="N34:W35" si="1">M34</f>
+        <f t="shared" ref="N34:W35" si="0">M34</f>
         <v>0.35</v>
       </c>
       <c r="O34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
       <c r="P34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
       <c r="R34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
       <c r="S34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
       <c r="T34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
       <c r="U34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
       <c r="V34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
       <c r="W34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
     </row>
@@ -31591,43 +31668,43 @@
         <v>22</v>
       </c>
       <c r="N35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="O35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="P35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="R35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="S35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="T35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="U35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="V35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="W35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
@@ -31683,43 +31760,43 @@
         <v>1995</v>
       </c>
       <c r="N37">
-        <f t="shared" ref="N37:W39" si="2">M37</f>
+        <f t="shared" ref="N37:W39" si="1">M37</f>
         <v>1995</v>
       </c>
       <c r="O37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1995</v>
       </c>
       <c r="P37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1995</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1995</v>
       </c>
       <c r="R37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1995</v>
       </c>
       <c r="S37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1995</v>
       </c>
       <c r="T37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1995</v>
       </c>
       <c r="U37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1995</v>
       </c>
       <c r="V37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1995</v>
       </c>
       <c r="W37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1995</v>
       </c>
     </row>
@@ -31752,43 +31829,43 @@
         <v>2101</v>
       </c>
       <c r="N38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2101</v>
       </c>
       <c r="O38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2101</v>
       </c>
       <c r="P38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2101</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2101</v>
       </c>
       <c r="R38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2101</v>
       </c>
       <c r="S38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2101</v>
       </c>
       <c r="T38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2101</v>
       </c>
       <c r="U38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2101</v>
       </c>
       <c r="V38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2101</v>
       </c>
       <c r="W38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2101</v>
       </c>
     </row>
@@ -31821,43 +31898,43 @@
         <v>150</v>
       </c>
       <c r="N39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="O39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="P39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="R39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="S39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="T39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="U39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="V39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="W39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
     </row>
@@ -31919,43 +31996,43 @@
         <v>1125000</v>
       </c>
       <c r="N41">
-        <f t="shared" ref="N41:W43" si="3">M41</f>
+        <f t="shared" ref="N41:W43" si="2">M41</f>
         <v>1125000</v>
       </c>
       <c r="O41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1125000</v>
       </c>
       <c r="P41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1125000</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1125000</v>
       </c>
       <c r="R41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1125000</v>
       </c>
       <c r="S41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1125000</v>
       </c>
       <c r="T41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1125000</v>
       </c>
       <c r="U41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1125000</v>
       </c>
       <c r="V41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1125000</v>
       </c>
       <c r="W41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1125000</v>
       </c>
     </row>
@@ -31988,43 +32065,43 @@
         <v>30</v>
       </c>
       <c r="N42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="O42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="P42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="R42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="S42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="T42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="U42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="V42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="W42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
@@ -32063,43 +32140,43 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="N43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="O43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="P43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="R43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="S43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="T43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="U43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="V43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="W43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
@@ -32155,43 +32232,43 @@
         <v>1995</v>
       </c>
       <c r="N45">
-        <f t="shared" ref="N45:W47" si="4">M45</f>
+        <f t="shared" ref="N45:W47" si="3">M45</f>
         <v>1995</v>
       </c>
       <c r="O45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1995</v>
       </c>
       <c r="P45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1995</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1995</v>
       </c>
       <c r="R45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1995</v>
       </c>
       <c r="S45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1995</v>
       </c>
       <c r="T45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1995</v>
       </c>
       <c r="U45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1995</v>
       </c>
       <c r="V45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1995</v>
       </c>
       <c r="W45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1995</v>
       </c>
     </row>
@@ -32224,43 +32301,43 @@
         <v>2101</v>
       </c>
       <c r="N46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2101</v>
       </c>
       <c r="O46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2101</v>
       </c>
       <c r="P46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2101</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2101</v>
       </c>
       <c r="R46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2101</v>
       </c>
       <c r="S46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2101</v>
       </c>
       <c r="T46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2101</v>
       </c>
       <c r="U46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2101</v>
       </c>
       <c r="V46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2101</v>
       </c>
       <c r="W46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2101</v>
       </c>
     </row>
@@ -32293,43 +32370,43 @@
         <v>150</v>
       </c>
       <c r="N47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="O47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="P47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="R47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="S47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="T47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="U47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="V47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="W47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
     </row>
@@ -32391,43 +32468,43 @@
         <v>1125000</v>
       </c>
       <c r="N49">
-        <f t="shared" ref="N49:W54" si="5">M49</f>
+        <f t="shared" ref="N49:W54" si="4">M49</f>
         <v>1125000</v>
       </c>
       <c r="O49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1125000</v>
       </c>
       <c r="P49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1125000</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1125000</v>
       </c>
       <c r="R49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1125000</v>
       </c>
       <c r="S49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1125000</v>
       </c>
       <c r="T49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1125000</v>
       </c>
       <c r="U49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1125000</v>
       </c>
       <c r="V49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1125000</v>
       </c>
       <c r="W49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1125000</v>
       </c>
     </row>
@@ -32460,43 +32537,43 @@
         <v>3348977.8037383198</v>
       </c>
       <c r="N50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3348977.8037383198</v>
       </c>
       <c r="O50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3348977.8037383198</v>
       </c>
       <c r="P50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3348977.8037383198</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3348977.8037383198</v>
       </c>
       <c r="R50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3348977.8037383198</v>
       </c>
       <c r="S50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3348977.8037383198</v>
       </c>
       <c r="T50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3348977.8037383198</v>
       </c>
       <c r="U50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3348977.8037383198</v>
       </c>
       <c r="V50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3348977.8037383198</v>
       </c>
       <c r="W50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3348977.8037383198</v>
       </c>
     </row>
@@ -32529,43 +32606,43 @@
         <v>30</v>
       </c>
       <c r="N51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="O51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="P51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="R51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="S51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="T51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="U51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="V51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="W51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
     </row>
@@ -32598,43 +32675,43 @@
         <v>355475.216992523</v>
       </c>
       <c r="N52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>355475.216992523</v>
       </c>
       <c r="O52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>355475.216992523</v>
       </c>
       <c r="P52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>355475.216992523</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>355475.216992523</v>
       </c>
       <c r="R52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>355475.216992523</v>
       </c>
       <c r="S52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>355475.216992523</v>
       </c>
       <c r="T52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>355475.216992523</v>
       </c>
       <c r="U52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>355475.216992523</v>
       </c>
       <c r="V52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>355475.216992523</v>
       </c>
       <c r="W52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>355475.216992523</v>
       </c>
     </row>
@@ -32670,43 +32747,43 @@
         <v>0.12773314299999999</v>
       </c>
       <c r="N53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="O53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="P53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="R53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="S53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="T53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="U53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="V53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="W53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.12773314299999999</v>
       </c>
     </row>
@@ -32745,43 +32822,43 @@
         <v>0.05</v>
       </c>
       <c r="N54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.05</v>
       </c>
       <c r="O54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.05</v>
       </c>
       <c r="P54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.05</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.05</v>
       </c>
       <c r="R54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.05</v>
       </c>
       <c r="S54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.05</v>
       </c>
       <c r="T54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.05</v>
       </c>
       <c r="U54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.05</v>
       </c>
       <c r="V54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.05</v>
       </c>
       <c r="W54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.05</v>
       </c>
     </row>
@@ -32837,43 +32914,43 @@
         <v>1995</v>
       </c>
       <c r="N56">
-        <f t="shared" ref="N56:W58" si="6">M56</f>
+        <f t="shared" ref="N56:W58" si="5">M56</f>
         <v>1995</v>
       </c>
       <c r="O56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1995</v>
       </c>
       <c r="P56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1995</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1995</v>
       </c>
       <c r="R56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1995</v>
       </c>
       <c r="S56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1995</v>
       </c>
       <c r="T56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1995</v>
       </c>
       <c r="U56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1995</v>
       </c>
       <c r="V56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1995</v>
       </c>
       <c r="W56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1995</v>
       </c>
     </row>
@@ -32906,43 +32983,43 @@
         <v>2101</v>
       </c>
       <c r="N57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2101</v>
       </c>
       <c r="O57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2101</v>
       </c>
       <c r="P57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2101</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2101</v>
       </c>
       <c r="R57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2101</v>
       </c>
       <c r="S57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2101</v>
       </c>
       <c r="T57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2101</v>
       </c>
       <c r="U57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2101</v>
       </c>
       <c r="V57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2101</v>
       </c>
       <c r="W57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2101</v>
       </c>
     </row>
@@ -32975,43 +33052,43 @@
         <v>150</v>
       </c>
       <c r="N58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="O58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="P58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="R58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="S58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="T58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="U58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="V58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="W58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
     </row>
@@ -33073,43 +33150,43 @@
         <v>1125000</v>
       </c>
       <c r="N60">
-        <f t="shared" ref="N60:W66" si="7">M60</f>
+        <f t="shared" ref="N60:W66" si="6">M60</f>
         <v>1125000</v>
       </c>
       <c r="O60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1125000</v>
       </c>
       <c r="P60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1125000</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1125000</v>
       </c>
       <c r="R60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1125000</v>
       </c>
       <c r="S60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1125000</v>
       </c>
       <c r="T60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1125000</v>
       </c>
       <c r="U60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1125000</v>
       </c>
       <c r="V60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1125000</v>
       </c>
       <c r="W60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1125000</v>
       </c>
     </row>
@@ -33142,43 +33219,43 @@
         <v>7413021.34579439</v>
       </c>
       <c r="N61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7413021.34579439</v>
       </c>
       <c r="O61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7413021.34579439</v>
       </c>
       <c r="P61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7413021.34579439</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7413021.34579439</v>
       </c>
       <c r="R61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7413021.34579439</v>
       </c>
       <c r="S61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7413021.34579439</v>
       </c>
       <c r="T61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7413021.34579439</v>
       </c>
       <c r="U61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7413021.34579439</v>
       </c>
       <c r="V61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7413021.34579439</v>
       </c>
       <c r="W61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7413021.34579439</v>
       </c>
     </row>
@@ -33211,43 +33288,43 @@
         <v>30</v>
       </c>
       <c r="N62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="O62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="P62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="R62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="S62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="T62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="U62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="V62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="W62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -33280,43 +33357,43 @@
         <v>608009.841121495</v>
       </c>
       <c r="N63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>608009.841121495</v>
       </c>
       <c r="O63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>608009.841121495</v>
       </c>
       <c r="P63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>608009.841121495</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>608009.841121495</v>
       </c>
       <c r="R63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>608009.841121495</v>
       </c>
       <c r="S63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>608009.841121495</v>
       </c>
       <c r="T63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>608009.841121495</v>
       </c>
       <c r="U63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>608009.841121495</v>
       </c>
       <c r="V63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>608009.841121495</v>
       </c>
       <c r="W63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>608009.841121495</v>
       </c>
     </row>
@@ -33352,43 +33429,43 @@
         <v>0.12773314299999999</v>
       </c>
       <c r="N64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="O64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="P64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="R64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="S64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="T64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="U64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="V64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="W64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.12773314299999999</v>
       </c>
     </row>
@@ -33424,43 +33501,43 @@
         <v>-3.8319943000000002E-2</v>
       </c>
       <c r="N65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-3.8319943000000002E-2</v>
       </c>
       <c r="O65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-3.8319943000000002E-2</v>
       </c>
       <c r="P65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-3.8319943000000002E-2</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-3.8319943000000002E-2</v>
       </c>
       <c r="R65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-3.8319943000000002E-2</v>
       </c>
       <c r="S65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-3.8319943000000002E-2</v>
       </c>
       <c r="T65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-3.8319943000000002E-2</v>
       </c>
       <c r="U65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-3.8319943000000002E-2</v>
       </c>
       <c r="V65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-3.8319943000000002E-2</v>
       </c>
       <c r="W65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-3.8319943000000002E-2</v>
       </c>
     </row>
@@ -33499,43 +33576,43 @@
         <v>0.05</v>
       </c>
       <c r="N66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
       <c r="O66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
       <c r="P66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
       <c r="Q66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
       <c r="R66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
       <c r="S66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
       <c r="T66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
       <c r="U66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
       <c r="V66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
       <c r="W66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
     </row>
@@ -33611,43 +33688,43 @@
         <v>0.35</v>
       </c>
       <c r="N69">
-        <f t="shared" ref="N69:W70" si="8">M69</f>
+        <f t="shared" ref="N69:W70" si="7">M69</f>
         <v>0.35</v>
       </c>
       <c r="O69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.35</v>
       </c>
       <c r="P69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.35</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.35</v>
       </c>
       <c r="R69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.35</v>
       </c>
       <c r="S69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.35</v>
       </c>
       <c r="T69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.35</v>
       </c>
       <c r="U69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.35</v>
       </c>
       <c r="V69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.35</v>
       </c>
       <c r="W69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.35</v>
       </c>
     </row>
@@ -33674,43 +33751,43 @@
         <v>22</v>
       </c>
       <c r="N70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="O70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="P70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="R70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="S70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="T70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="U70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="V70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="W70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
     </row>
@@ -33766,43 +33843,43 @@
         <v>1995</v>
       </c>
       <c r="N72">
-        <f t="shared" ref="N72:W74" si="9">M72</f>
+        <f t="shared" ref="N72:W74" si="8">M72</f>
         <v>1995</v>
       </c>
       <c r="O72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1995</v>
       </c>
       <c r="P72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1995</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1995</v>
       </c>
       <c r="R72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1995</v>
       </c>
       <c r="S72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1995</v>
       </c>
       <c r="T72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1995</v>
       </c>
       <c r="U72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1995</v>
       </c>
       <c r="V72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1995</v>
       </c>
       <c r="W72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1995</v>
       </c>
     </row>
@@ -33835,43 +33912,43 @@
         <v>2101</v>
       </c>
       <c r="N73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2101</v>
       </c>
       <c r="O73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2101</v>
       </c>
       <c r="P73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2101</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2101</v>
       </c>
       <c r="R73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2101</v>
       </c>
       <c r="S73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2101</v>
       </c>
       <c r="T73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2101</v>
       </c>
       <c r="U73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2101</v>
       </c>
       <c r="V73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2101</v>
       </c>
       <c r="W73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2101</v>
       </c>
     </row>
@@ -33904,43 +33981,43 @@
         <v>150</v>
       </c>
       <c r="N74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="O74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="P74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="R74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="S74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="T74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="U74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="V74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="W74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
     </row>
@@ -34002,43 +34079,43 @@
         <v>3500000</v>
       </c>
       <c r="N76">
-        <f t="shared" ref="N76:W78" si="10">M76</f>
+        <f t="shared" ref="N76:W78" si="9">M76</f>
         <v>3500000</v>
       </c>
       <c r="O76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3500000</v>
       </c>
       <c r="P76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3500000</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3500000</v>
       </c>
       <c r="R76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3500000</v>
       </c>
       <c r="S76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3500000</v>
       </c>
       <c r="T76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3500000</v>
       </c>
       <c r="U76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3500000</v>
       </c>
       <c r="V76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3500000</v>
       </c>
       <c r="W76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3500000</v>
       </c>
     </row>
@@ -34071,43 +34148,43 @@
         <v>30</v>
       </c>
       <c r="N77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="O77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="P77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="R77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="S77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="T77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="U77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="V77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="W77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
     </row>
@@ -34146,43 +34223,43 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="N78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="O78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="P78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="R78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="S78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="T78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="U78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="V78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="W78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
@@ -34238,43 +34315,43 @@
         <v>1995</v>
       </c>
       <c r="N80">
-        <f t="shared" ref="N80:W82" si="11">M80</f>
+        <f t="shared" ref="N80:W82" si="10">M80</f>
         <v>1995</v>
       </c>
       <c r="O80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1995</v>
       </c>
       <c r="P80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1995</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1995</v>
       </c>
       <c r="R80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1995</v>
       </c>
       <c r="S80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1995</v>
       </c>
       <c r="T80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1995</v>
       </c>
       <c r="U80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1995</v>
       </c>
       <c r="V80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1995</v>
       </c>
       <c r="W80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1995</v>
       </c>
     </row>
@@ -34307,43 +34384,43 @@
         <v>2101</v>
       </c>
       <c r="N81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2101</v>
       </c>
       <c r="O81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2101</v>
       </c>
       <c r="P81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2101</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2101</v>
       </c>
       <c r="R81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2101</v>
       </c>
       <c r="S81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2101</v>
       </c>
       <c r="T81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2101</v>
       </c>
       <c r="U81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2101</v>
       </c>
       <c r="V81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2101</v>
       </c>
       <c r="W81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2101</v>
       </c>
     </row>
@@ -34376,43 +34453,43 @@
         <v>150</v>
       </c>
       <c r="N82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>150</v>
       </c>
       <c r="O82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>150</v>
       </c>
       <c r="P82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>150</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>150</v>
       </c>
       <c r="R82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>150</v>
       </c>
       <c r="S82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>150</v>
       </c>
       <c r="T82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>150</v>
       </c>
       <c r="U82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>150</v>
       </c>
       <c r="V82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>150</v>
       </c>
       <c r="W82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>150</v>
       </c>
     </row>
@@ -34474,43 +34551,43 @@
         <v>3500000</v>
       </c>
       <c r="N84">
-        <f t="shared" ref="N84:W89" si="12">M84</f>
+        <f t="shared" ref="N84:W89" si="11">M84</f>
         <v>3500000</v>
       </c>
       <c r="O84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3500000</v>
       </c>
       <c r="P84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3500000</v>
       </c>
       <c r="Q84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3500000</v>
       </c>
       <c r="R84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3500000</v>
       </c>
       <c r="S84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3500000</v>
       </c>
       <c r="T84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3500000</v>
       </c>
       <c r="U84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3500000</v>
       </c>
       <c r="V84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3500000</v>
       </c>
       <c r="W84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3500000</v>
       </c>
     </row>
@@ -34543,43 +34620,43 @@
         <v>4985455.6074766396</v>
       </c>
       <c r="N85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4985455.6074766396</v>
       </c>
       <c r="O85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4985455.6074766396</v>
       </c>
       <c r="P85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4985455.6074766396</v>
       </c>
       <c r="Q85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4985455.6074766396</v>
       </c>
       <c r="R85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4985455.6074766396</v>
       </c>
       <c r="S85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4985455.6074766396</v>
       </c>
       <c r="T85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4985455.6074766396</v>
       </c>
       <c r="U85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4985455.6074766396</v>
       </c>
       <c r="V85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4985455.6074766396</v>
       </c>
       <c r="W85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4985455.6074766396</v>
       </c>
     </row>
@@ -34612,43 +34689,43 @@
         <v>30</v>
       </c>
       <c r="N86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="O86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="P86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="R86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="S86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="T86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="U86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="V86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="W86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
     </row>
@@ -34681,43 +34758,43 @@
         <v>452564.22104299098</v>
       </c>
       <c r="N87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>452564.22104299098</v>
       </c>
       <c r="O87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>452564.22104299098</v>
       </c>
       <c r="P87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>452564.22104299098</v>
       </c>
       <c r="Q87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>452564.22104299098</v>
       </c>
       <c r="R87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>452564.22104299098</v>
       </c>
       <c r="S87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>452564.22104299098</v>
       </c>
       <c r="T87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>452564.22104299098</v>
       </c>
       <c r="U87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>452564.22104299098</v>
       </c>
       <c r="V87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>452564.22104299098</v>
       </c>
       <c r="W87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>452564.22104299098</v>
       </c>
     </row>
@@ -34753,43 +34830,43 @@
         <v>0.12773314299999999</v>
       </c>
       <c r="N88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="O88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="P88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="Q88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="R88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="S88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="T88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="U88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="V88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="W88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.12773314299999999</v>
       </c>
     </row>
@@ -34828,43 +34905,43 @@
         <v>0.05</v>
       </c>
       <c r="N89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.05</v>
       </c>
       <c r="O89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.05</v>
       </c>
       <c r="P89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.05</v>
       </c>
       <c r="Q89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.05</v>
       </c>
       <c r="R89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.05</v>
       </c>
       <c r="S89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.05</v>
       </c>
       <c r="T89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.05</v>
       </c>
       <c r="U89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.05</v>
       </c>
       <c r="V89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.05</v>
       </c>
       <c r="W89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.05</v>
       </c>
     </row>
@@ -34920,43 +34997,43 @@
         <v>1995</v>
       </c>
       <c r="N91">
-        <f t="shared" ref="N91:W93" si="13">M91</f>
+        <f t="shared" ref="N91:W93" si="12">M91</f>
         <v>1995</v>
       </c>
       <c r="O91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1995</v>
       </c>
       <c r="P91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1995</v>
       </c>
       <c r="Q91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1995</v>
       </c>
       <c r="R91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1995</v>
       </c>
       <c r="S91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1995</v>
       </c>
       <c r="T91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1995</v>
       </c>
       <c r="U91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1995</v>
       </c>
       <c r="V91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1995</v>
       </c>
       <c r="W91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1995</v>
       </c>
     </row>
@@ -34989,43 +35066,43 @@
         <v>2101</v>
       </c>
       <c r="N92">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2101</v>
       </c>
       <c r="O92">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2101</v>
       </c>
       <c r="P92">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2101</v>
       </c>
       <c r="Q92">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2101</v>
       </c>
       <c r="R92">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2101</v>
       </c>
       <c r="S92">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2101</v>
       </c>
       <c r="T92">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2101</v>
       </c>
       <c r="U92">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2101</v>
       </c>
       <c r="V92">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2101</v>
       </c>
       <c r="W92">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2101</v>
       </c>
     </row>
@@ -35058,43 +35135,43 @@
         <v>150</v>
       </c>
       <c r="N93">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>150</v>
       </c>
       <c r="O93">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>150</v>
       </c>
       <c r="P93">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>150</v>
       </c>
       <c r="Q93">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>150</v>
       </c>
       <c r="R93">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>150</v>
       </c>
       <c r="S93">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>150</v>
       </c>
       <c r="T93">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>150</v>
       </c>
       <c r="U93">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>150</v>
       </c>
       <c r="V93">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>150</v>
       </c>
       <c r="W93">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>150</v>
       </c>
     </row>
@@ -35156,43 +35233,43 @@
         <v>3500000</v>
       </c>
       <c r="N95">
-        <f t="shared" ref="N95:W101" si="14">M95</f>
+        <f t="shared" ref="N95:W101" si="13">M95</f>
         <v>3500000</v>
       </c>
       <c r="O95">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3500000</v>
       </c>
       <c r="P95">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3500000</v>
       </c>
       <c r="Q95">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3500000</v>
       </c>
       <c r="R95">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3500000</v>
       </c>
       <c r="S95">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3500000</v>
       </c>
       <c r="T95">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3500000</v>
       </c>
       <c r="U95">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3500000</v>
       </c>
       <c r="V95">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3500000</v>
       </c>
       <c r="W95">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3500000</v>
       </c>
     </row>
@@ -35225,43 +35302,43 @@
         <v>15228446.261682199</v>
       </c>
       <c r="N96">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>15228446.261682199</v>
       </c>
       <c r="O96">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>15228446.261682199</v>
       </c>
       <c r="P96">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>15228446.261682199</v>
       </c>
       <c r="Q96">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>15228446.261682199</v>
       </c>
       <c r="R96">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>15228446.261682199</v>
       </c>
       <c r="S96">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>15228446.261682199</v>
       </c>
       <c r="T96">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>15228446.261682199</v>
       </c>
       <c r="U96">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>15228446.261682199</v>
       </c>
       <c r="V96">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>15228446.261682199</v>
       </c>
       <c r="W96">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>15228446.261682199</v>
       </c>
     </row>
@@ -35294,43 +35371,43 @@
         <v>30</v>
       </c>
       <c r="N97">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="O97">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="P97">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="Q97">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="R97">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="S97">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="T97">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="U97">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="V97">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="W97">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
     </row>
@@ -35363,43 +35440,43 @@
         <v>1490762.2990654199</v>
       </c>
       <c r="N98">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1490762.2990654199</v>
       </c>
       <c r="O98">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1490762.2990654199</v>
       </c>
       <c r="P98">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1490762.2990654199</v>
       </c>
       <c r="Q98">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1490762.2990654199</v>
       </c>
       <c r="R98">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1490762.2990654199</v>
       </c>
       <c r="S98">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1490762.2990654199</v>
       </c>
       <c r="T98">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1490762.2990654199</v>
       </c>
       <c r="U98">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1490762.2990654199</v>
       </c>
       <c r="V98">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1490762.2990654199</v>
       </c>
       <c r="W98">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1490762.2990654199</v>
       </c>
     </row>
@@ -35435,43 +35512,43 @@
         <v>0.12773314299999999</v>
       </c>
       <c r="N99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="O99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="P99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="Q99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="R99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="S99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="T99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="U99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="V99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="W99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.12773314299999999</v>
       </c>
     </row>
@@ -35507,43 +35584,43 @@
         <v>-3.8319943000000002E-2</v>
       </c>
       <c r="N100">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>-3.8319943000000002E-2</v>
       </c>
       <c r="O100">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>-3.8319943000000002E-2</v>
       </c>
       <c r="P100">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>-3.8319943000000002E-2</v>
       </c>
       <c r="Q100">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>-3.8319943000000002E-2</v>
       </c>
       <c r="R100">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>-3.8319943000000002E-2</v>
       </c>
       <c r="S100">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>-3.8319943000000002E-2</v>
       </c>
       <c r="T100">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>-3.8319943000000002E-2</v>
       </c>
       <c r="U100">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>-3.8319943000000002E-2</v>
       </c>
       <c r="V100">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>-3.8319943000000002E-2</v>
       </c>
       <c r="W100">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>-3.8319943000000002E-2</v>
       </c>
     </row>
@@ -35582,43 +35659,43 @@
         <v>0.05</v>
       </c>
       <c r="N101">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.05</v>
       </c>
       <c r="O101">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.05</v>
       </c>
       <c r="P101">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.05</v>
       </c>
       <c r="Q101">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.05</v>
       </c>
       <c r="R101">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.05</v>
       </c>
       <c r="S101">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.05</v>
       </c>
       <c r="T101">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.05</v>
       </c>
       <c r="U101">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.05</v>
       </c>
       <c r="V101">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.05</v>
       </c>
       <c r="W101">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.05</v>
       </c>
     </row>
@@ -35694,43 +35771,43 @@
         <v>0.2</v>
       </c>
       <c r="N104">
-        <f t="shared" ref="N104:W105" si="15">M104</f>
+        <f t="shared" ref="N104:W105" si="14">M104</f>
         <v>0.2</v>
       </c>
       <c r="O104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.2</v>
       </c>
       <c r="P104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.2</v>
       </c>
       <c r="Q104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.2</v>
       </c>
       <c r="R104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.2</v>
       </c>
       <c r="S104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.2</v>
       </c>
       <c r="T104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.2</v>
       </c>
       <c r="U104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.2</v>
       </c>
       <c r="V104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.2</v>
       </c>
       <c r="W104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.2</v>
       </c>
     </row>
@@ -35757,43 +35834,43 @@
         <v>8</v>
       </c>
       <c r="N105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="O105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="P105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="Q105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="R105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="S105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="T105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="U105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="V105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="W105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
     </row>
@@ -35849,43 +35926,43 @@
         <v>1995</v>
       </c>
       <c r="N107">
-        <f t="shared" ref="N107:W109" si="16">M107</f>
+        <f t="shared" ref="N107:W109" si="15">M107</f>
         <v>1995</v>
       </c>
       <c r="O107">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1995</v>
       </c>
       <c r="P107">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1995</v>
       </c>
       <c r="Q107">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1995</v>
       </c>
       <c r="R107">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1995</v>
       </c>
       <c r="S107">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1995</v>
       </c>
       <c r="T107">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1995</v>
       </c>
       <c r="U107">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1995</v>
       </c>
       <c r="V107">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1995</v>
       </c>
       <c r="W107">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1995</v>
       </c>
     </row>
@@ -35918,43 +35995,43 @@
         <v>2101</v>
       </c>
       <c r="N108">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2101</v>
       </c>
       <c r="O108">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2101</v>
       </c>
       <c r="P108">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2101</v>
       </c>
       <c r="Q108">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2101</v>
       </c>
       <c r="R108">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2101</v>
       </c>
       <c r="S108">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2101</v>
       </c>
       <c r="T108">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2101</v>
       </c>
       <c r="U108">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2101</v>
       </c>
       <c r="V108">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2101</v>
       </c>
       <c r="W108">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2101</v>
       </c>
     </row>
@@ -35987,43 +36064,43 @@
         <v>150</v>
       </c>
       <c r="N109">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>150</v>
       </c>
       <c r="O109">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>150</v>
       </c>
       <c r="P109">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>150</v>
       </c>
       <c r="Q109">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>150</v>
       </c>
       <c r="R109">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>150</v>
       </c>
       <c r="S109">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>150</v>
       </c>
       <c r="T109">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>150</v>
       </c>
       <c r="U109">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>150</v>
       </c>
       <c r="V109">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>150</v>
       </c>
       <c r="W109">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>150</v>
       </c>
     </row>
@@ -36085,43 +36162,43 @@
         <v>7500000</v>
       </c>
       <c r="N111">
-        <f t="shared" ref="N111:W113" si="17">M111</f>
+        <f t="shared" ref="N111:W113" si="16">M111</f>
         <v>7500000</v>
       </c>
       <c r="O111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>7500000</v>
       </c>
       <c r="P111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>7500000</v>
       </c>
       <c r="Q111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>7500000</v>
       </c>
       <c r="R111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>7500000</v>
       </c>
       <c r="S111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>7500000</v>
       </c>
       <c r="T111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>7500000</v>
       </c>
       <c r="U111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>7500000</v>
       </c>
       <c r="V111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>7500000</v>
       </c>
       <c r="W111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>7500000</v>
       </c>
     </row>
@@ -36154,43 +36231,43 @@
         <v>30</v>
       </c>
       <c r="N112">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
       <c r="O112">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
       <c r="P112">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
       <c r="Q112">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
       <c r="R112">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
       <c r="S112">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
       <c r="T112">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
       <c r="U112">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
       <c r="V112">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
       <c r="W112">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
     </row>
@@ -36229,43 +36306,43 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="N113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="O113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="P113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="Q113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="R113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="S113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="T113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="U113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="V113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="W113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
@@ -36321,43 +36398,43 @@
         <v>1995</v>
       </c>
       <c r="N115">
-        <f t="shared" ref="N115:W117" si="18">M115</f>
+        <f t="shared" ref="N115:W117" si="17">M115</f>
         <v>1995</v>
       </c>
       <c r="O115">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1995</v>
       </c>
       <c r="P115">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1995</v>
       </c>
       <c r="Q115">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1995</v>
       </c>
       <c r="R115">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1995</v>
       </c>
       <c r="S115">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1995</v>
       </c>
       <c r="T115">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1995</v>
       </c>
       <c r="U115">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1995</v>
       </c>
       <c r="V115">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1995</v>
       </c>
       <c r="W115">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1995</v>
       </c>
     </row>
@@ -36390,43 +36467,43 @@
         <v>2101</v>
       </c>
       <c r="N116">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2101</v>
       </c>
       <c r="O116">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2101</v>
       </c>
       <c r="P116">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2101</v>
       </c>
       <c r="Q116">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2101</v>
       </c>
       <c r="R116">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2101</v>
       </c>
       <c r="S116">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2101</v>
       </c>
       <c r="T116">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2101</v>
       </c>
       <c r="U116">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2101</v>
       </c>
       <c r="V116">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2101</v>
       </c>
       <c r="W116">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2101</v>
       </c>
     </row>
@@ -36459,43 +36536,43 @@
         <v>150</v>
       </c>
       <c r="N117">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>150</v>
       </c>
       <c r="O117">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>150</v>
       </c>
       <c r="P117">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>150</v>
       </c>
       <c r="Q117">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>150</v>
       </c>
       <c r="R117">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>150</v>
       </c>
       <c r="S117">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>150</v>
       </c>
       <c r="T117">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>150</v>
       </c>
       <c r="U117">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>150</v>
       </c>
       <c r="V117">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>150</v>
       </c>
       <c r="W117">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>150</v>
       </c>
     </row>
@@ -36557,43 +36634,43 @@
         <v>7500000</v>
       </c>
       <c r="N119">
-        <f t="shared" ref="N119:W124" si="19">M119</f>
+        <f t="shared" ref="N119:W124" si="18">M119</f>
         <v>7500000</v>
       </c>
       <c r="O119">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>7500000</v>
       </c>
       <c r="P119">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>7500000</v>
       </c>
       <c r="Q119">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>7500000</v>
       </c>
       <c r="R119">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>7500000</v>
       </c>
       <c r="S119">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>7500000</v>
       </c>
       <c r="T119">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>7500000</v>
       </c>
       <c r="U119">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>7500000</v>
       </c>
       <c r="V119">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>7500000</v>
       </c>
       <c r="W119">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>7500000</v>
       </c>
     </row>
@@ -36626,43 +36703,43 @@
         <v>7682242.9906542096</v>
       </c>
       <c r="N120">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>7682242.9906542096</v>
       </c>
       <c r="O120">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>7682242.9906542096</v>
       </c>
       <c r="P120">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>7682242.9906542096</v>
       </c>
       <c r="Q120">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>7682242.9906542096</v>
       </c>
       <c r="R120">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>7682242.9906542096</v>
       </c>
       <c r="S120">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>7682242.9906542096</v>
       </c>
       <c r="T120">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>7682242.9906542096</v>
       </c>
       <c r="U120">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>7682242.9906542096</v>
       </c>
       <c r="V120">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>7682242.9906542096</v>
       </c>
       <c r="W120">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>7682242.9906542096</v>
       </c>
     </row>
@@ -36695,43 +36772,43 @@
         <v>30</v>
       </c>
       <c r="N121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="O121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="P121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="Q121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="R121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="S121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="T121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="U121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="V121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="W121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
     </row>
@@ -36764,43 +36841,43 @@
         <v>611378.50467289705</v>
       </c>
       <c r="N122">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>611378.50467289705</v>
       </c>
       <c r="O122">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>611378.50467289705</v>
       </c>
       <c r="P122">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>611378.50467289705</v>
       </c>
       <c r="Q122">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>611378.50467289705</v>
       </c>
       <c r="R122">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>611378.50467289705</v>
       </c>
       <c r="S122">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>611378.50467289705</v>
       </c>
       <c r="T122">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>611378.50467289705</v>
       </c>
       <c r="U122">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>611378.50467289705</v>
       </c>
       <c r="V122">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>611378.50467289705</v>
       </c>
       <c r="W122">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>611378.50467289705</v>
       </c>
     </row>
@@ -36836,43 +36913,43 @@
         <v>0.12773314299999999</v>
       </c>
       <c r="N123">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="O123">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="P123">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="Q123">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="R123">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="S123">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="T123">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="U123">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="V123">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="W123">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.12773314299999999</v>
       </c>
     </row>
@@ -36911,43 +36988,43 @@
         <v>0.05</v>
       </c>
       <c r="N124">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.05</v>
       </c>
       <c r="O124">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.05</v>
       </c>
       <c r="P124">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.05</v>
       </c>
       <c r="Q124">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.05</v>
       </c>
       <c r="R124">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.05</v>
       </c>
       <c r="S124">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.05</v>
       </c>
       <c r="T124">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.05</v>
       </c>
       <c r="U124">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.05</v>
       </c>
       <c r="V124">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.05</v>
       </c>
       <c r="W124">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.05</v>
       </c>
     </row>
@@ -37003,43 +37080,43 @@
         <v>1995</v>
       </c>
       <c r="N126">
-        <f t="shared" ref="N126:W128" si="20">M126</f>
+        <f t="shared" ref="N126:W128" si="19">M126</f>
         <v>1995</v>
       </c>
       <c r="O126">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1995</v>
       </c>
       <c r="P126">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1995</v>
       </c>
       <c r="Q126">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1995</v>
       </c>
       <c r="R126">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1995</v>
       </c>
       <c r="S126">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1995</v>
       </c>
       <c r="T126">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1995</v>
       </c>
       <c r="U126">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1995</v>
       </c>
       <c r="V126">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1995</v>
       </c>
       <c r="W126">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1995</v>
       </c>
     </row>
@@ -37072,43 +37149,43 @@
         <v>2101</v>
       </c>
       <c r="N127">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>2101</v>
       </c>
       <c r="O127">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>2101</v>
       </c>
       <c r="P127">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>2101</v>
       </c>
       <c r="Q127">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>2101</v>
       </c>
       <c r="R127">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>2101</v>
       </c>
       <c r="S127">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>2101</v>
       </c>
       <c r="T127">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>2101</v>
       </c>
       <c r="U127">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>2101</v>
       </c>
       <c r="V127">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>2101</v>
       </c>
       <c r="W127">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>2101</v>
       </c>
     </row>
@@ -37141,43 +37218,43 @@
         <v>150</v>
       </c>
       <c r="N128">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>150</v>
       </c>
       <c r="O128">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>150</v>
       </c>
       <c r="P128">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>150</v>
       </c>
       <c r="Q128">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>150</v>
       </c>
       <c r="R128">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>150</v>
       </c>
       <c r="S128">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>150</v>
       </c>
       <c r="T128">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>150</v>
       </c>
       <c r="U128">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>150</v>
       </c>
       <c r="V128">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>150</v>
       </c>
       <c r="W128">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>150</v>
       </c>
     </row>
@@ -37239,43 +37316,43 @@
         <v>7500000</v>
       </c>
       <c r="N130">
-        <f t="shared" ref="N130:W136" si="21">M130</f>
+        <f t="shared" ref="N130:W136" si="20">M130</f>
         <v>7500000</v>
       </c>
       <c r="O130">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>7500000</v>
       </c>
       <c r="P130">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>7500000</v>
       </c>
       <c r="Q130">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>7500000</v>
       </c>
       <c r="R130">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>7500000</v>
       </c>
       <c r="S130">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>7500000</v>
       </c>
       <c r="T130">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>7500000</v>
       </c>
       <c r="U130">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>7500000</v>
       </c>
       <c r="V130">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>7500000</v>
       </c>
       <c r="W130">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>7500000</v>
       </c>
     </row>
@@ -37308,43 +37385,43 @@
         <v>25516020.813084099</v>
       </c>
       <c r="N131">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>25516020.813084099</v>
       </c>
       <c r="O131">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>25516020.813084099</v>
       </c>
       <c r="P131">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>25516020.813084099</v>
       </c>
       <c r="Q131">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>25516020.813084099</v>
       </c>
       <c r="R131">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>25516020.813084099</v>
       </c>
       <c r="S131">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>25516020.813084099</v>
       </c>
       <c r="T131">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>25516020.813084099</v>
       </c>
       <c r="U131">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>25516020.813084099</v>
       </c>
       <c r="V131">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>25516020.813084099</v>
       </c>
       <c r="W131">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>25516020.813084099</v>
       </c>
     </row>
@@ -37377,43 +37454,43 @@
         <v>30</v>
       </c>
       <c r="N132">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>30</v>
       </c>
       <c r="O132">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>30</v>
       </c>
       <c r="P132">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>30</v>
       </c>
       <c r="Q132">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>30</v>
       </c>
       <c r="R132">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>30</v>
       </c>
       <c r="S132">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>30</v>
       </c>
       <c r="T132">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>30</v>
       </c>
       <c r="U132">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>30</v>
       </c>
       <c r="V132">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>30</v>
       </c>
       <c r="W132">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>30</v>
       </c>
     </row>
@@ -37446,43 +37523,43 @@
         <v>2535451.31775701</v>
       </c>
       <c r="N133">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>2535451.31775701</v>
       </c>
       <c r="O133">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>2535451.31775701</v>
       </c>
       <c r="P133">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>2535451.31775701</v>
       </c>
       <c r="Q133">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>2535451.31775701</v>
       </c>
       <c r="R133">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>2535451.31775701</v>
       </c>
       <c r="S133">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>2535451.31775701</v>
       </c>
       <c r="T133">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>2535451.31775701</v>
       </c>
       <c r="U133">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>2535451.31775701</v>
       </c>
       <c r="V133">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>2535451.31775701</v>
       </c>
       <c r="W133">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>2535451.31775701</v>
       </c>
     </row>
@@ -37518,43 +37595,43 @@
         <v>0.12773314299999999</v>
       </c>
       <c r="N134">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="O134">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="P134">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="Q134">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="R134">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="S134">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="T134">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="U134">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="V134">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.12773314299999999</v>
       </c>
       <c r="W134">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.12773314299999999</v>
       </c>
     </row>
@@ -37590,43 +37667,43 @@
         <v>-3.8319943000000002E-2</v>
       </c>
       <c r="N135">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>-3.8319943000000002E-2</v>
       </c>
       <c r="O135">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>-3.8319943000000002E-2</v>
       </c>
       <c r="P135">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>-3.8319943000000002E-2</v>
       </c>
       <c r="Q135">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>-3.8319943000000002E-2</v>
       </c>
       <c r="R135">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>-3.8319943000000002E-2</v>
       </c>
       <c r="S135">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>-3.8319943000000002E-2</v>
       </c>
       <c r="T135">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>-3.8319943000000002E-2</v>
       </c>
       <c r="U135">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>-3.8319943000000002E-2</v>
       </c>
       <c r="V135">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>-3.8319943000000002E-2</v>
       </c>
       <c r="W135">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>-3.8319943000000002E-2</v>
       </c>
     </row>
@@ -37665,43 +37742,43 @@
         <v>0.05</v>
       </c>
       <c r="N136">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.05</v>
       </c>
       <c r="O136">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.05</v>
       </c>
       <c r="P136">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.05</v>
       </c>
       <c r="Q136">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.05</v>
       </c>
       <c r="R136">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.05</v>
       </c>
       <c r="S136">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.05</v>
       </c>
       <c r="T136">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.05</v>
       </c>
       <c r="U136">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.05</v>
       </c>
       <c r="V136">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.05</v>
       </c>
       <c r="W136">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.05</v>
       </c>
     </row>
